--- a/CBSys/CBSys/bin/Debug/CBSys.xlsx
+++ b/CBSys/CBSys/bin/Debug/CBSys.xlsx
@@ -418,7 +418,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5A9A0-1A3D-4BE1-8B6D-8892F8412F63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78EC56C7-67A9-4A12-9F36-F077ACD4E9DC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>